--- a/Listagens de Inventário/FILIAL BRASILIA-DF 0950 - ALMOX - BRASÍLIA.xlsx
+++ b/Listagens de Inventário/FILIAL BRASILIA-DF 0950 - ALMOX - BRASÍLIA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I243"/>
+  <dimension ref="A1:I248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,9 @@
         </is>
       </c>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -547,7 +549,9 @@
         </is>
       </c>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
       <c r="I3" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -584,7 +588,9 @@
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -621,7 +627,9 @@
         </is>
       </c>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -658,7 +666,9 @@
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -695,7 +705,9 @@
         </is>
       </c>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -732,7 +744,9 @@
         </is>
       </c>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
       <c r="I8" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -769,7 +783,9 @@
         </is>
       </c>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
       <c r="I9" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -806,7 +822,9 @@
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
       <c r="I10" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -843,7 +861,9 @@
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -880,7 +900,9 @@
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -917,7 +939,9 @@
         </is>
       </c>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
       <c r="I13" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -954,7 +978,9 @@
         </is>
       </c>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
       <c r="I14" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -991,7 +1017,9 @@
         </is>
       </c>
       <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
       <c r="I15" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1028,7 +1056,9 @@
         </is>
       </c>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
       <c r="I16" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1065,7 +1095,9 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
       <c r="I17" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1102,7 +1134,9 @@
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
-      <c r="H18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
       <c r="I18" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1139,7 +1173,9 @@
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
-      <c r="H19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
       <c r="I19" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1176,7 +1212,9 @@
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
-      <c r="H20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
       <c r="I20" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1213,7 +1251,9 @@
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
-      <c r="H21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
       <c r="I21" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1250,7 +1290,9 @@
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
       <c r="I22" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1287,7 +1329,9 @@
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
       <c r="I23" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1324,7 +1368,9 @@
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
       <c r="I24" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1361,7 +1407,9 @@
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
       <c r="I25" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1398,7 +1446,9 @@
         </is>
       </c>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
       <c r="I26" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1435,7 +1485,9 @@
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
       <c r="I27" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1472,7 +1524,9 @@
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
       <c r="I28" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1509,7 +1563,9 @@
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1546,7 +1602,9 @@
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1583,7 +1641,9 @@
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1620,7 +1680,9 @@
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1657,7 +1719,9 @@
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1694,7 +1758,9 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1731,7 +1797,9 @@
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1768,7 +1836,9 @@
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1805,7 +1875,9 @@
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
       <c r="I37" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1842,7 +1914,9 @@
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
       <c r="I38" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1879,7 +1953,9 @@
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
       <c r="I39" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1916,7 +1992,9 @@
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
       <c r="I40" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1953,7 +2031,9 @@
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
       <c r="I41" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -1990,7 +2070,9 @@
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
       <c r="I42" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2031,7 +2113,9 @@
           <t>1298840</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>250</v>
+      </c>
       <c r="I43" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2068,7 +2152,9 @@
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2087,7 +2173,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3588</v>
+        <v>3820</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2104,12 +2190,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>1228924</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2128,16 +2212,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3581</v>
+        <v>3588</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>10030004</t>
+          <t>10030003</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AGULHA A VACUO 22G COM TRAVAS DE SEGURANCA (PRETA)</t>
+          <t>AGULHA A VACUO 21G COM TRAVAS DE SEGURANCA (VERDE)</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2147,10 +2231,12 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1144801</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr"/>
+          <t>1228924</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2169,16 +2255,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3596</v>
+        <v>3581</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>10030005</t>
+          <t>10030004</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 13X4,5</t>
+          <t>AGULHA A VACUO 22G COM TRAVAS DE SEGURANCA (PRETA)</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2188,10 +2274,12 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>2180457</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr"/>
+          <t>1144801</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>96</v>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2210,7 +2298,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3583</v>
+        <v>3808</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2229,10 +2317,12 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>1181960</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr"/>
+          <t>2272901</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>400</v>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2251,7 +2341,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3808</v>
+        <v>3583</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2270,10 +2360,12 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>2272901</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr"/>
+          <t>1181960</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2292,16 +2384,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3786</v>
+        <v>3596</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>10030007</t>
+          <t>10030005</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 16X0,5</t>
+          <t>AGULHA HIPODERMICA 13X4,5</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -2309,8 +2401,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2180457</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>100</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2329,16 +2427,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3803</v>
+        <v>3786</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>10030008</t>
+          <t>10030007</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 20X5,5</t>
+          <t>AGULHA HIPODERMICA 16X0,5</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2347,7 +2445,9 @@
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
       <c r="I51" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2366,7 +2466,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3608</v>
+        <v>3803</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2383,12 +2483,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>3118959</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
       <c r="I52" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2407,7 +2505,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3804</v>
+        <v>3818</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2426,10 +2524,12 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>3031391</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr"/>
+          <t>221027</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>300</v>
+      </c>
       <c r="I53" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2448,16 +2548,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3728</v>
+        <v>3608</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>10030010</t>
+          <t>10030008</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 25X0,5</t>
+          <t>AGULHA HIPODERMICA 20X5,5</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -2465,8 +2565,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>3118959</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
       <c r="I54" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2485,16 +2591,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3582</v>
+        <v>3804</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>10030012</t>
+          <t>10030008</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 25X0,6</t>
+          <t>AGULHA HIPODERMICA 20X5,5</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2504,10 +2610,12 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>1181924</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr"/>
+          <t>3031391</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>200</v>
+      </c>
       <c r="I55" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2526,16 +2634,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3815</v>
+        <v>3728</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>10030012</t>
+          <t>10030010</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 25X0,6</t>
+          <t>AGULHA HIPODERMICA 25X0,5</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2544,7 +2652,9 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
       <c r="I56" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2563,16 +2673,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3814</v>
+        <v>3582</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>10030013</t>
+          <t>10030012</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 25X0,6 COM DISPOSITIVO DE SEGURANCA</t>
+          <t>AGULHA HIPODERMICA 25X0,6</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2580,8 +2690,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>1181924</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
       <c r="I57" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2600,16 +2716,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3579</v>
+        <v>3815</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>10030013</t>
+          <t>10030012</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>AGULHA HIPODERMICA 25X0,6 COM DISPOSITIVO DE SEGURANCA</t>
+          <t>AGULHA HIPODERMICA 25X0,6</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2617,12 +2733,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>1119467</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
       <c r="I58" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2641,16 +2755,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3622</v>
+        <v>3579</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>10030016</t>
+          <t>10030013</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ALCOOL 70% LÍQUIDO</t>
+          <t>AGULHA HIPODERMICA 25X0,6 COM DISPOSITIVO DE SEGURANCA</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2660,13 +2774,15 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>S6259</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr"/>
+          <t>1119467</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -2682,16 +2798,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3575</v>
+        <v>3814</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>10030017</t>
+          <t>10030013</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ALGODAO HIDROFILO</t>
+          <t>AGULHA HIPODERMICA 25X0,6 COM DISPOSITIVO DE SEGURANCA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2699,12 +2815,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>002</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
       <c r="I60" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2723,16 +2837,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3610</v>
+        <v>3622</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>10030017</t>
+          <t>10030016</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ALGODAO HIDROFILO</t>
+          <t>ALCOOL 70% LÍQUIDO</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -2742,13 +2856,15 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>367182317</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr"/>
+          <t>S6259</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -2764,16 +2880,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3753</v>
+        <v>3575</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>10030018</t>
+          <t>10030017</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ATESTADO DE BRAVURA SORTIDO</t>
+          <t>ALGODAO HIDROFILO</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2781,8 +2897,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
       <c r="I62" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2801,16 +2923,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3642</v>
+        <v>3610</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>10030019</t>
+          <t>10030017</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>AVENTAL DESCARTAVEL</t>
+          <t>ALGODAO HIDROFILO</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2818,8 +2940,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>367182317</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>6</v>
+      </c>
       <c r="I63" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2838,16 +2966,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3758</v>
+        <v>3753</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>10030020</t>
+          <t>10030018</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>BOBINA PLASTICA PICOTADA 30X40 (3L)</t>
+          <t>ATESTADO DE BRAVURA SORTIDO</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2856,7 +2984,9 @@
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2875,16 +3005,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3736</v>
+        <v>3642</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>10030022</t>
+          <t>10030019</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>BOTTON MAMAE</t>
+          <t>AVENTAL DESCARTAVEL</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2893,7 +3023,9 @@
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>20</v>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2912,16 +3044,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3741</v>
+        <v>3758</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>10030023</t>
+          <t>10030020</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>BOTTON PAPAI</t>
+          <t>BOBINA PLASTICA PICOTADA 30X40 (3L)</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -2930,7 +3062,9 @@
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2949,16 +3083,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3643</v>
+        <v>3736</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>10030024</t>
+          <t>10030022</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CADERNETA BCG</t>
+          <t>BOTTON MAMAE</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2967,7 +3101,9 @@
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
       <c r="I67" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -2986,16 +3122,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3644</v>
+        <v>3741</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>10030025</t>
+          <t>10030023</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>CADERNETAS DE VACINACAO</t>
+          <t>BOTTON PAPAI</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -3004,7 +3140,9 @@
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
       <c r="I68" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3023,16 +3161,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3613</v>
+        <v>3643</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>10030026</t>
+          <t>10030024</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>CAIXA COLETORA DE PERFURO CORTANTE 1,5L</t>
+          <t>CADERNETA BCG</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3040,12 +3178,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>CO15AA0157</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="n">
+        <v>1000</v>
+      </c>
       <c r="I69" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3064,16 +3200,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3619</v>
+        <v>3644</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>10030027</t>
+          <t>10030025</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>CAIXA COLETORA DE PERFURO CORTANTE 7L (DESCARPACK)</t>
+          <t>CADERNETAS DE VACINACAO</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -3081,12 +3217,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>LC2210017C</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="n">
+        <v>3506</v>
+      </c>
       <c r="I70" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3105,16 +3239,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>10030027</t>
+          <t>10030026</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>CAIXA COLETORA DE PERFURO CORTANTE 7L (DESCARPACK)</t>
+          <t>CAIXA COLETORA DE PERFURO CORTANTE 1,5L</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3124,10 +3258,12 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>CO70AA0263</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr"/>
+          <t>CO15AA0157</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>420</v>
+      </c>
       <c r="I71" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3146,16 +3282,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3615</v>
+        <v>3619</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>10030028</t>
+          <t>10030027</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
+          <t>CAIXA COLETORA DE PERFURO CORTANTE 7L (DESCARPACK)</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -3165,10 +3301,12 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>CTNT85771</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr"/>
+          <t>LC2210017C</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3187,16 +3325,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3739</v>
+        <v>3614</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>10030029</t>
+          <t>10030027</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>COLETOR UNIVERSAL ESTERIL</t>
+          <t>CAIXA COLETORA DE PERFURO CORTANTE 7L (DESCARPACK)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -3204,8 +3342,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>CO70AA0263</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>20</v>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3224,16 +3368,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3605</v>
+        <v>3819</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>10030030</t>
+          <t>10030028</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CURATIVO REDONDO PERSONALIZADO BEEP</t>
+          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3243,10 +3387,12 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>28023</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr"/>
+          <t>C2060</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>200</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3265,16 +3411,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3761</v>
+        <v>3615</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>10030031</t>
+          <t>10030028</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t xml:space="preserve">ENVELOPE DE SEGURANCA (BEEP) </t>
+          <t>CAMPO CIRURGICO DESCARTAVEL 0,45X0,45 (TNT)</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3282,8 +3428,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>CTNT85771</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3302,16 +3454,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3617</v>
+        <v>3739</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>10030032</t>
+          <t>10030029</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>ETIQUETA TERMICA (25 X 20 - 1 COLUNA) - BEEP</t>
+          <t>COLETOR UNIVERSAL ESTERIL</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -3319,12 +3471,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>IDBFA252001</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3343,16 +3493,16 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3618</v>
+        <v>3605</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>10030033</t>
+          <t>10030030</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>ETIQUETA TERMICA (33 X 21 - 3 COLUNAS) - BRANCA</t>
+          <t>CURATIVO REDONDO PERSONALIZADO BEEP</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3362,10 +3512,12 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>IDCA33</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
+          <t>28023</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>11000</v>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3384,16 +3536,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3809</v>
+        <v>3761</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>10030034</t>
+          <t>10030031</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>GAZE HIDROFILA ESTERIL</t>
+          <t xml:space="preserve">ENVELOPE DE SEGURANCA (BEEP) </t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3401,12 +3553,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>9791</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3425,16 +3575,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3612</v>
+        <v>3617</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>10030034</t>
+          <t>10030032</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>GAZE HIDROFILA ESTERIL</t>
+          <t>ETIQUETA TERMICA (25 X 20 - 1 COLUNA) - BEEP</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -3444,10 +3594,12 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>B07-1</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
+          <t>IDBFA252001</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
       <c r="I79" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3466,16 +3618,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3578</v>
+        <v>3821</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>10030034</t>
+          <t>10030032</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>GAZE HIDROFILA ESTERIL</t>
+          <t>ETIQUETA TERMICA (25 X 20 - 1 COLUNA) - BEEP</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -3483,12 +3635,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>1004L</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
       <c r="I80" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3507,16 +3657,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3621</v>
+        <v>3618</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>10030035</t>
+          <t>10030033</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>HIPOCLORITO 1%</t>
+          <t>ETIQUETA TERMICA (33 X 21 - 3 COLUNAS) - BRANCA</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3526,13 +3676,15 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>P23030028</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr"/>
+          <t>IDCA33</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>34</v>
+      </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3548,16 +3700,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3639</v>
+        <v>3809</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>10030036</t>
+          <t>10030034</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - BALAO VERDE BEEP</t>
+          <t>GAZE HIDROFILA ESTERIL</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3565,8 +3717,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>9791</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>140</v>
+      </c>
       <c r="I82" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3585,16 +3743,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3640</v>
+        <v>3578</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>10030037</t>
+          <t>10030034</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - CARTAO KIT SEXAGEM</t>
+          <t>GAZE HIDROFILA ESTERIL</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -3602,8 +3760,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>1004L</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>120</v>
+      </c>
       <c r="I83" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3622,16 +3786,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3676</v>
+        <v>3612</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>10030038</t>
+          <t>10030034</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - EMBALAGEM BASCULANTE</t>
+          <t>GAZE HIDROFILA ESTERIL</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -3639,8 +3803,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>B07-1</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
       <c r="I84" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3659,16 +3829,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3641</v>
+        <v>3621</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>10030039</t>
+          <t>10030035</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - FITA CETIM (BRANCA 10M X 16MM)</t>
+          <t>HIPOCLORITO 1%</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -3676,11 +3846,17 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>P23030028</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -3696,16 +3872,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3765</v>
+        <v>3639</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>10030040</t>
+          <t>10030036</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - FITA CETIM (BRANCA 60M X 16MM)</t>
+          <t>KIT SEXAGEM - BALAO VERDE BEEP</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -3714,7 +3890,9 @@
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="n">
+        <v>550</v>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3733,16 +3911,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3627</v>
+        <v>3640</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>10030041</t>
+          <t>10030037</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE AZUL</t>
+          <t>KIT SEXAGEM - CARTAO KIT SEXAGEM</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -3751,10 +3929,12 @@
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="H87" t="n">
+        <v>143</v>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>QUILOGRAMA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3770,16 +3950,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3628</v>
+        <v>3676</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>10030042</t>
+          <t>10030038</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE ROSA</t>
+          <t>KIT SEXAGEM - EMBALAGEM BASCULANTE</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -3788,10 +3968,12 @@
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="H88" t="n">
+        <v>180</v>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>QUILOGRAMA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -3807,16 +3989,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3635</v>
+        <v>3641</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>10030043</t>
+          <t>10030039</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>KIT SEXAGEM - SACO PLASTICO (12×25CM)</t>
+          <t>KIT SEXAGEM - FITA CETIM (BRANCA 10M X 16MM)</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3825,7 +4007,9 @@
         </is>
       </c>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+      <c r="H89" t="n">
+        <v>28</v>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3844,16 +4028,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3580</v>
+        <v>3765</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>10030044</t>
+          <t>10030040</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>LANCETA BD 2,50X1,00</t>
+          <t>KIT SEXAGEM - FITA CETIM (BRANCA 60M X 16MM)</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -3861,12 +4045,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>1127231</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -3885,16 +4067,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3597</v>
+        <v>3627</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>10030045</t>
+          <t>10030041</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO G</t>
+          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE AZUL</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3902,15 +4084,13 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>22010104</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="n">
+        <v>2</v>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>QUILOGRAMA</t>
         </is>
       </c>
     </row>
@@ -3926,16 +4106,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3806</v>
+        <v>3628</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>10030046</t>
+          <t>10030042</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO M</t>
+          <t>KIT SEXAGEM - PAPEL PICADO CINTILANTE ROSA</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3943,15 +4123,13 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>036/23</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>QUILOGRAMA</t>
         </is>
       </c>
     </row>
@@ -3967,16 +4145,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3603</v>
+        <v>3635</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>10030046</t>
+          <t>10030043</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO M</t>
+          <t>KIT SEXAGEM - SACO PLASTICO (12×25CM)</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -3984,12 +4162,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>230302440</t>
-        </is>
-      </c>
-      <c r="H93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="n">
+        <v>3500</v>
+      </c>
       <c r="I93" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4008,16 +4184,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3816</v>
+        <v>3580</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>10030046</t>
+          <t>10030044</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO M</t>
+          <t>LANCETA BD 2,50X1,00</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -4025,8 +4201,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>1127231</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>100</v>
+      </c>
       <c r="I94" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4045,16 +4227,16 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3601</v>
+        <v>3597</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>10030047</t>
+          <t>10030045</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO P</t>
+          <t>LUVA NITRÍLICA SEM PO G</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -4064,10 +4246,12 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>22109126</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr"/>
+          <t>22010104</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>200</v>
+      </c>
       <c r="I95" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4086,16 +4270,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3807</v>
+        <v>3806</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>10030047</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO P</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -4105,10 +4289,12 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>036/24</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr"/>
+          <t>036/23</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>400</v>
+      </c>
       <c r="I96" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4127,16 +4313,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3599</v>
+        <v>3603</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>10030048</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO PP</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -4146,10 +4332,12 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>22075937</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr"/>
+          <t>230302440</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
       <c r="I97" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4168,16 +4356,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3600</v>
+        <v>3816</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>10030048</t>
+          <t>10030046</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>LUVA NITRÍLICA SEM PO PP</t>
+          <t>LUVA NITRÍLICA SEM PO M</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -4185,12 +4373,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>22098040</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
       <c r="I98" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4209,16 +4395,16 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3762</v>
+        <v>3601</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>10030049</t>
+          <t>10030047</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>LUVA VINÍLICA (TAM. G)</t>
+          <t>LUVA NITRÍLICA SEM PO P</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -4226,8 +4412,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>22109126</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
       <c r="I99" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4246,16 +4438,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3606</v>
+        <v>3807</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>10030050</t>
+          <t>10030047</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
+          <t>LUVA NITRÍLICA SEM PO P</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -4265,10 +4457,12 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>2MEMAA0001</t>
-        </is>
-      </c>
-      <c r="H100" t="inlineStr"/>
+          <t>036/24</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4287,16 +4481,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3805</v>
+        <v>3817</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>10030050</t>
+          <t>10030047</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
+          <t>LUVA NITRÍLICA SEM PO P</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -4306,10 +4500,12 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0247</t>
-        </is>
-      </c>
-      <c r="H101" t="inlineStr"/>
+          <t>036/23</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>200</v>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4328,16 +4524,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>3813</v>
+        <v>3600</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>10030050</t>
+          <t>10030048</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
+          <t>LUVA NITRÍLICA SEM PO PP</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -4347,10 +4543,12 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>TYFAR0222</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr"/>
+          <t>22098040</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>700</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4369,16 +4567,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>3611</v>
+        <v>3599</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>10030051</t>
+          <t>10030048</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL N95</t>
+          <t>LUVA NITRÍLICA SEM PO PP</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4388,10 +4586,12 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>431420101</t>
-        </is>
-      </c>
-      <c r="H103" t="inlineStr"/>
+          <t>22075937</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>500</v>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4410,16 +4610,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>3620</v>
+        <v>3762</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>10030051</t>
+          <t>10030049</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>MASCARA DESCARTAVEL N95</t>
+          <t>LUVA VINÍLICA (TAM. G)</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -4427,12 +4627,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G104" t="inlineStr">
-        <is>
-          <t>LKM0030/88</t>
-        </is>
-      </c>
-      <c r="H104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4451,16 +4649,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>3638</v>
+        <v>3805</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>10030053</t>
+          <t>10030050</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PAPEL ALUMÍNIO</t>
+          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -4468,8 +4666,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0247</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>50</v>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4488,16 +4692,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>3637</v>
+        <v>3813</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>10030054</t>
+          <t>10030050</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PAPEL TOALHA INTERFOLHADO</t>
+          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -4505,8 +4709,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>TYFAR0222</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>100</v>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4525,16 +4735,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>3607</v>
+        <v>3606</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>10030055</t>
+          <t>10030050</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PONTEIRA UNIVERSAL SEM FILTRO 1.000 µL</t>
+          <t>MASCARA CIRURGICA TRIPLA DESCARTAVEL</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -4544,10 +4754,12 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>30062022N</t>
-        </is>
-      </c>
-      <c r="H107" t="inlineStr"/>
+          <t>2MEMAA0001</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
       <c r="I107" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4566,16 +4778,16 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3773</v>
+        <v>3620</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>10030056</t>
+          <t>10030051</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PONTEIRA UNIVERSAL SEM FILTRO 200 µL</t>
+          <t>MASCARA DESCARTAVEL N95</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -4583,8 +4795,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>LKM0030/88</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>288</v>
+      </c>
       <c r="I108" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4603,16 +4821,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>3576</v>
+        <v>3611</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>10030057</t>
+          <t>10030051</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
+          <t>MASCARA DESCARTAVEL N95</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -4622,10 +4840,12 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>002142/S</t>
-        </is>
-      </c>
-      <c r="H109" t="inlineStr"/>
+          <t>431420101</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>38</v>
+      </c>
       <c r="I109" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4644,16 +4864,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>3744</v>
+        <v>3638</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>10030058</t>
+          <t>10030053</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SABONETE LÍQUIDO</t>
+          <t>PAPEL ALUMÍNIO</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -4662,10 +4882,12 @@
         </is>
       </c>
       <c r="G110" t="inlineStr"/>
-      <c r="H110" t="inlineStr"/>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>LITRO</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -4681,16 +4903,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>3602</v>
+        <v>3637</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>10030059</t>
+          <t>10030054</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
+          <t>PAPEL TOALHA INTERFOLHADO</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -4698,12 +4920,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>221130U</t>
-        </is>
-      </c>
-      <c r="H111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="n">
+        <v>1000</v>
+      </c>
       <c r="I111" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4722,16 +4942,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>3616</v>
+        <v>3607</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>10030059</t>
+          <t>10030055</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
+          <t>PONTEIRA UNIVERSAL SEM FILTRO 1.000 µL</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4741,10 +4961,12 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>FY2003285</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr"/>
+          <t>30062022N</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1000</v>
+      </c>
       <c r="I112" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4763,16 +4985,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>3632</v>
+        <v>3773</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>10030060</t>
+          <t>10030056</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SACO DE LIXO INFECTANTE 100 LITROS</t>
+          <t>PONTEIRA UNIVERSAL SEM FILTRO 200 µL</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -4781,7 +5003,9 @@
         </is>
       </c>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
       <c r="I113" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4800,16 +5024,16 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>3633</v>
+        <v>3576</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>10030061</t>
+          <t>10030057</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SACO DE LIXO INFECTANTE 15 LITROS</t>
+          <t>RECIPIENTE PARA COLETA DE FEZES COM CONSERVANTE SAF</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4817,8 +5041,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>002142/S</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>300</v>
+      </c>
       <c r="I114" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4837,16 +5067,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>3634</v>
+        <v>3744</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>10030062</t>
+          <t>10030058</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SACO DE LIXO INFECTANTE 30 LITROS</t>
+          <t>SABONETE LÍQUIDO</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4855,10 +5085,12 @@
         </is>
       </c>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
       <c r="I115" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>LITRO</t>
         </is>
       </c>
     </row>
@@ -4874,16 +5106,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>3630</v>
+        <v>3602</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>10030063</t>
+          <t>10030059</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SACO PLASTICO 16X21CM COM ADESIVO PONTA (KIT SEXAGEM)</t>
+          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4891,8 +5123,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr"/>
-      <c r="H116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>221130U</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>100</v>
+      </c>
       <c r="I116" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4911,16 +5149,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>3810</v>
+        <v>3616</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>10030065</t>
+          <t>10030059</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SAPATILHA PROPE</t>
+          <t>SACO COLETOR DE URINA ESTERIL INFANTIL</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4930,10 +5168,12 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>NEW103</t>
-        </is>
-      </c>
-      <c r="H117" t="inlineStr"/>
+          <t>FY2003285</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>100</v>
+      </c>
       <c r="I117" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4952,16 +5192,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>3625</v>
+        <v>3632</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>10030065</t>
+          <t>10030060</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SAPATILHA PROPE</t>
+          <t>SACO DE LIXO INFECTANTE 100 LITROS</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4969,12 +5209,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
-        <is>
-          <t>TYFAR-202303</t>
-        </is>
-      </c>
-      <c r="H118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>5300</v>
+      </c>
       <c r="I118" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -4993,16 +5231,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>3812</v>
+        <v>3633</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>10030065</t>
+          <t>10030061</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SAPATILHA PROPE</t>
+          <t>SACO DE LIXO INFECTANTE 15 LITROS</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5010,12 +5248,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>TYFAR-S0422</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>500</v>
+      </c>
       <c r="I119" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5034,16 +5270,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>3586</v>
+        <v>3634</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>10030066</t>
+          <t>10030062</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
+          <t>SACO DE LIXO INFECTANTE 30 LITROS</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -5051,12 +5287,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>1215893</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>3000</v>
+      </c>
       <c r="I120" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5075,16 +5309,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>3585</v>
+        <v>3630</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>10030066</t>
+          <t>10030063</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
+          <t>SACO PLASTICO 16X21CM COM ADESIVO PONTA (KIT SEXAGEM)</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -5092,12 +5326,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>1214902</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="n">
+        <v>900</v>
+      </c>
       <c r="I121" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5116,16 +5348,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>3587</v>
+        <v>3812</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>10030067</t>
+          <t>10030065</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
+          <t>SAPATILHA PROPE</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -5135,10 +5367,12 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>1215921</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr"/>
+          <t>TYFAR-S0422</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>200</v>
+      </c>
       <c r="I122" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5157,16 +5391,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>3590</v>
+        <v>3810</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>10030067</t>
+          <t>10030065</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
+          <t>SAPATILHA PROPE</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -5176,10 +5410,12 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>1267244</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr"/>
+          <t>NEW103</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>100</v>
+      </c>
       <c r="I123" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5198,16 +5434,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>3584</v>
+        <v>3625</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>10030067</t>
+          <t>10030065</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
+          <t>SAPATILHA PROPE</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
@@ -5217,10 +5453,12 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>1193630</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr"/>
+          <t>TYFAR-202303</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>100</v>
+      </c>
       <c r="I124" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5239,16 +5477,16 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>3589</v>
+        <v>3586</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>10030068</t>
+          <t>10030066</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SCALP 25G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -5258,10 +5496,12 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>1239723</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
+          <t>1215893</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>100</v>
+      </c>
       <c r="I125" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5280,16 +5520,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>3592</v>
+        <v>3585</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>10030069</t>
+          <t>10030066</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5299,10 +5539,12 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>1C21A1</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr"/>
+          <t>1214902</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>350</v>
+      </c>
       <c r="I126" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5321,16 +5563,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>3593</v>
+        <v>3587</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>10030070</t>
+          <t>10030067</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
@@ -5340,10 +5582,12 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>1D12A1</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr"/>
+          <t>1215921</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>60</v>
+      </c>
       <c r="I127" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5362,16 +5606,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>3577</v>
+        <v>3584</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>10030071</t>
+          <t>10030067</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SCALP A VACUO 25G COM TRAVA DE SEGURANCA</t>
+          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -5381,10 +5625,12 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0L02A2</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr"/>
+          <t>1193630</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>375</v>
+      </c>
       <c r="I128" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5403,16 +5649,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>3598</v>
+        <v>3590</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>10030072</t>
+          <t>10030067</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SERINGA 10 ML LL SEM TRAVA DE SEGURANCA</t>
+          <t>SCALP 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5422,10 +5668,12 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>2201105312</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr"/>
+          <t>1267244</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>201</v>
+      </c>
       <c r="I129" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5444,16 +5692,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>3623</v>
+        <v>3589</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>10030073</t>
+          <t>10030068</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SERINGA 1ML LS</t>
+          <t>SCALP 25G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -5463,10 +5711,12 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>SSIAAA072B</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr"/>
+          <t>1239723</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>79</v>
+      </c>
       <c r="I130" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5485,16 +5735,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>3604</v>
+        <v>3592</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>10030074</t>
+          <t>10030069</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SERINGA 3ML LL</t>
+          <t>SCALP A VACUO 21G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5504,10 +5754,12 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>2346408</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr"/>
+          <t>1C21A1</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>100</v>
+      </c>
       <c r="I131" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5526,16 +5778,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>3595</v>
+        <v>3593</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>10030075</t>
+          <t>10030070</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SERINGA 5 ML LL SEM TRAVA DE SEGURANCA</t>
+          <t>SCALP A VACUO 23G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5545,10 +5797,12 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>2101048023</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr"/>
+          <t>1D12A1</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>200</v>
+      </c>
       <c r="I132" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5567,16 +5821,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>3624</v>
+        <v>3577</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>10030076</t>
+          <t>10030071</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SERINGA DESCARTAVEL PARA INSULINA 12,7 X 0,33M</t>
+          <t>SCALP A VACUO 25G COM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5586,10 +5840,12 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>SSIAAA072B</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr"/>
+          <t>0L02A2</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>100</v>
+      </c>
       <c r="I133" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5608,16 +5864,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>3737</v>
+        <v>3598</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>10030078</t>
+          <t>10030072</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SWAB ALCOOL 70°</t>
+          <t>SERINGA 10 ML LL SEM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5625,8 +5881,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr"/>
-      <c r="H134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2201105312</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>220</v>
+      </c>
       <c r="I134" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5645,16 +5907,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>3811</v>
+        <v>3623</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>10030078</t>
+          <t>10030073</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SWAB ALCOOL 70°</t>
+          <t>SERINGA 1ML LS</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5664,10 +5926,12 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>K0801</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr"/>
+          <t>SSIAAA072B</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>500</v>
+      </c>
       <c r="I135" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5686,16 +5950,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>3594</v>
+        <v>3604</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>10030079</t>
+          <t>10030074</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>TOUCA DESCARTAVEL</t>
+          <t>SERINGA 3ML LL</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5705,10 +5969,12 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>2004-DC</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr"/>
+          <t>2346408</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>700</v>
+      </c>
       <c r="I136" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5727,16 +5993,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>3650</v>
+        <v>3595</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>10030080</t>
+          <t>10030075</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>PILHA AAA</t>
+          <t>SERINGA 5 ML LL SEM TRAVA DE SEGURANCA</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5744,8 +6010,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr"/>
-      <c r="H137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2101048023</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>210</v>
+      </c>
       <c r="I137" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -5764,249 +6036,275 @@
         </is>
       </c>
       <c r="C138" t="n">
+        <v>3624</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>10030076</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>SERINGA DESCARTAVEL PARA INSULINA 12,7 X 0,33M</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>SSIAAA072B</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>1400</v>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>3737</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>10030078</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>SWAB ALCOOL 70°</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>3811</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>10030078</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>SWAB ALCOOL 70°</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>K0801</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>400</v>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>3594</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>10030079</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>TOUCA DESCARTAVEL</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2004-DC</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>300</v>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>3650</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>10030080</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>PILHA AAA</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="n">
+        <v>16</v>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
         <v>3631</v>
       </c>
-      <c r="D138" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>10030083</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="E143" t="inlineStr">
         <is>
           <t xml:space="preserve">SACO DE LIXO PRETO 30L
 </t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G138" t="inlineStr"/>
-      <c r="H138" t="inlineStr"/>
-      <c r="I138" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C139" t="n">
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="n">
+        <v>300</v>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
         <v>3719</v>
       </c>
-      <c r="D139" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>10030087</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="E144" t="inlineStr">
         <is>
           <t xml:space="preserve">ATESTADO DE BRAVURA MES ATUAL
 </t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr"/>
-      <c r="H139" t="inlineStr"/>
-      <c r="I139" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C140" t="n">
-        <v>3721</v>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>10030090</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>SACO ZIP LOCK 7X10</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C141" t="n">
-        <v>3792</v>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>10030092</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>SACO DE LIXO PRETO 60L</t>
-        </is>
-      </c>
-      <c r="F141" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C142" t="n">
-        <v>3787</v>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>10030093</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>SACO DE LIXO INFECTANTE 60 LITROS</t>
-        </is>
-      </c>
-      <c r="F142" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G142" t="inlineStr"/>
-      <c r="H142" t="inlineStr"/>
-      <c r="I142" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C143" t="n">
-        <v>3723</v>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>10030096</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>ELASTICO AMARELO 500G</t>
-        </is>
-      </c>
-      <c r="F143" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G143" t="inlineStr"/>
-      <c r="H143" t="inlineStr"/>
-      <c r="I143" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C144" t="n">
-        <v>3724</v>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>10030098</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>PAPEL SULFITE A4 75G</t>
-        </is>
-      </c>
       <c r="F144" t="inlineStr">
         <is>
           <t>ALMOX</t>
         </is>
       </c>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>1100</v>
+      </c>
       <c r="I144" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6025,16 +6323,16 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>3636</v>
+        <v>3721</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>10030099</t>
+          <t>10030090</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>BOBINA PLASTICA PICOTADA (2L)</t>
+          <t>SACO ZIP LOCK 7X10</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -6043,7 +6341,9 @@
         </is>
       </c>
       <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
+      <c r="H145" t="n">
+        <v>100</v>
+      </c>
       <c r="I145" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6062,16 +6362,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>3799</v>
+        <v>3792</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>10030100</t>
+          <t>10030092</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SACO DE LIXO PRETO 40L</t>
+          <t>SACO DE LIXO PRETO 60L</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -6080,7 +6380,9 @@
         </is>
       </c>
       <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
       <c r="I146" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6099,16 +6401,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>3801</v>
+        <v>3787</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>10030102</t>
+          <t>10030093</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SACO PLASTICO 15X22CM SEM ADESIVO</t>
+          <t>SACO DE LIXO INFECTANTE 60 LITROS</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
@@ -6117,7 +6419,9 @@
         </is>
       </c>
       <c r="G147" t="inlineStr"/>
-      <c r="H147" t="inlineStr"/>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
       <c r="I147" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6136,16 +6440,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>3609</v>
+        <v>3723</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>10030104</t>
+          <t>10030096</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>OLEO MINERAL 100ML</t>
+          <t>ELASTICO AMARELO 500G</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -6153,12 +6457,10 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="H148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="n">
+        <v>9</v>
+      </c>
       <c r="I148" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6177,16 +6479,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>3679</v>
+        <v>3724</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>10040001</t>
+          <t>10030098</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>ALCA DE COOLER 16L</t>
+          <t>PAPEL SULFITE A4 75G</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -6195,7 +6497,9 @@
         </is>
       </c>
       <c r="G149" t="inlineStr"/>
-      <c r="H149" t="inlineStr"/>
+      <c r="H149" t="n">
+        <v>20</v>
+      </c>
       <c r="I149" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6214,16 +6518,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>3651</v>
+        <v>3636</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>10040002</t>
+          <t>10030099</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>ALCA DE COOLER 26L</t>
+          <t>BOBINA PLASTICA PICOTADA (2L)</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -6232,7 +6536,9 @@
         </is>
       </c>
       <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
+      <c r="H150" t="n">
+        <v>2400</v>
+      </c>
       <c r="I150" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6251,16 +6557,16 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>3652</v>
+        <v>3799</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>10040003</t>
+          <t>10030100</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>ALCA DE COOLER 8,5L</t>
+          <t>SACO DE LIXO PRETO 40L</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -6269,7 +6575,9 @@
         </is>
       </c>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>100</v>
+      </c>
       <c r="I151" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6288,16 +6596,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>3653</v>
+        <v>3801</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>10040004</t>
+          <t>10030102</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>ALMOTOLIA 500ML BICO CURVO / RETO</t>
+          <t>SACO PLASTICO 15X22CM SEM ADESIVO</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -6306,7 +6614,9 @@
         </is>
       </c>
       <c r="G152" t="inlineStr"/>
-      <c r="H152" t="inlineStr"/>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
       <c r="I152" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6325,16 +6635,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>3654</v>
+        <v>3609</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>10040006</t>
+          <t>10030104</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>BANDEJA INOX DE PREPARO (22 X 12 X 1,5) - PERSONALIZADA BEEP</t>
+          <t>OLEO MINERAL 100ML</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -6342,8 +6652,14 @@
           <t>ALMOX</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>3</v>
+      </c>
       <c r="I153" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6362,16 +6678,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>3655</v>
+        <v>3679</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>10040007</t>
+          <t>10040001</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>BANDEJA INOX DE PREPARO (23 X 10 X 1)</t>
+          <t>ALCA DE COOLER 16L</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -6380,7 +6696,9 @@
         </is>
       </c>
       <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
+      <c r="H154" t="n">
+        <v>5</v>
+      </c>
       <c r="I154" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6399,16 +6717,16 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>3656</v>
+        <v>3651</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>10040011</t>
+          <t>10040002</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>CAIXA TERMICA EASY COOLER 8,5L (TERMOMETRO LADO DIREITO) - SV/LAB</t>
+          <t>ALCA DE COOLER 26L</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -6417,7 +6735,9 @@
         </is>
       </c>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>5</v>
+      </c>
       <c r="I155" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6436,16 +6756,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>3657</v>
+        <v>3652</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>10040013</t>
+          <t>10040003</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t xml:space="preserve">CAMPO LOGO BEEP </t>
+          <t>ALCA DE COOLER 8,5L</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -6454,7 +6774,9 @@
         </is>
       </c>
       <c r="G156" t="inlineStr"/>
-      <c r="H156" t="inlineStr"/>
+      <c r="H156" t="n">
+        <v>10</v>
+      </c>
       <c r="I156" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6473,16 +6795,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>3658</v>
+        <v>3653</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>10040015</t>
+          <t>10040004</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>CAPA COOLER</t>
+          <t>ALMOTOLIA 500ML BICO CURVO / RETO</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -6491,7 +6813,9 @@
         </is>
       </c>
       <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
+      <c r="H157" t="n">
+        <v>10</v>
+      </c>
       <c r="I157" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6510,16 +6834,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>3659</v>
+        <v>3654</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>10040016</t>
+          <t>10040006</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>CARIMBO BEEP</t>
+          <t>BANDEJA INOX DE PREPARO (22 X 12 X 1,5) - PERSONALIZADA BEEP</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
@@ -6528,7 +6852,9 @@
         </is>
       </c>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
+      <c r="H158" t="n">
+        <v>6</v>
+      </c>
       <c r="I158" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6547,16 +6873,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>3677</v>
+        <v>3655</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>10040018</t>
+          <t>10040007</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>CESTO ORGANIZADOR QUADRATTA 34X27X9 BRANCO (REF. 889)</t>
+          <t>BANDEJA INOX DE PREPARO (23 X 10 X 1)</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -6565,7 +6891,9 @@
         </is>
       </c>
       <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
+      <c r="H159" t="n">
+        <v>15</v>
+      </c>
       <c r="I159" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6584,16 +6912,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>3660</v>
+        <v>3656</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10040019</t>
+          <t>10040011</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>CESTO ORGANIZADOR QUADRATTA 9X9X10 BRANCO (REF. 895)</t>
+          <t>CAIXA TERMICA EASY COOLER 8,5L (TERMOMETRO LADO DIREITO) - SV/LAB</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6602,7 +6930,9 @@
         </is>
       </c>
       <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
+      <c r="H160" t="n">
+        <v>4</v>
+      </c>
       <c r="I160" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6621,16 +6951,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>3661</v>
+        <v>3657</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>10040024</t>
+          <t>10040013</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>ESTANTES PARA TUBOS TIPO FALCON (15ML E 50ML)</t>
+          <t xml:space="preserve">CAMPO LOGO BEEP </t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6639,7 +6969,9 @@
         </is>
       </c>
       <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
+      <c r="H161" t="n">
+        <v>70</v>
+      </c>
       <c r="I161" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6658,16 +6990,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>3662</v>
+        <v>3658</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>10040026</t>
+          <t>10040015</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>ESTOJO DE COURO PARA INSUMOS - TAM. M</t>
+          <t>CAPA COOLER</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6676,7 +7008,9 @@
         </is>
       </c>
       <c r="G162" t="inlineStr"/>
-      <c r="H162" t="inlineStr"/>
+      <c r="H162" t="n">
+        <v>20</v>
+      </c>
       <c r="I162" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6695,16 +7029,16 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>3663</v>
+        <v>3659</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>10040027</t>
+          <t>10040016</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>ESTOJO ESCOLAR POLIPROPILENO TROUSSES</t>
+          <t>CARIMBO BEEP</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6713,7 +7047,9 @@
         </is>
       </c>
       <c r="G163" t="inlineStr"/>
-      <c r="H163" t="inlineStr"/>
+      <c r="H163" t="n">
+        <v>27</v>
+      </c>
       <c r="I163" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6732,16 +7068,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>3664</v>
+        <v>3677</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>10040028</t>
+          <t>10040018</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>FACE SHIELD</t>
+          <t>CESTO ORGANIZADOR QUADRATTA 34X27X9 BRANCO (REF. 889)</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6750,7 +7086,9 @@
         </is>
       </c>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>17</v>
+      </c>
       <c r="I164" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6769,16 +7107,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>3665</v>
+        <v>3660</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>10040029</t>
+          <t>10040019</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>FRASCO 100 ML - BORRIFADOR</t>
+          <t>CESTO ORGANIZADOR QUADRATTA 9X9X10 BRANCO (REF. 895)</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6787,7 +7125,9 @@
         </is>
       </c>
       <c r="G165" t="inlineStr"/>
-      <c r="H165" t="inlineStr"/>
+      <c r="H165" t="n">
+        <v>70</v>
+      </c>
       <c r="I165" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6806,16 +7146,16 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>3666</v>
+        <v>3661</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>10040030</t>
+          <t>10040024</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>FRASCO 100 ML - VALVULA PUMP</t>
+          <t>ESTANTES PARA TUBOS TIPO FALCON (15ML E 50ML)</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
@@ -6824,7 +7164,9 @@
         </is>
       </c>
       <c r="G166" t="inlineStr"/>
-      <c r="H166" t="inlineStr"/>
+      <c r="H166" t="n">
+        <v>10</v>
+      </c>
       <c r="I166" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6843,16 +7185,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>3667</v>
+        <v>3662</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>10040031</t>
+          <t>10040026</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>FRASCO 500 ML - BORRIFADOR</t>
+          <t>ESTOJO DE COURO PARA INSUMOS - TAM. M</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
@@ -6861,7 +7203,9 @@
         </is>
       </c>
       <c r="G167" t="inlineStr"/>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="n">
+        <v>68</v>
+      </c>
       <c r="I167" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6880,16 +7224,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>3668</v>
+        <v>3663</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>10040032</t>
+          <t>10040027</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>FRASCO 500 ML - VALVULA PUMP</t>
+          <t>ESTOJO ESCOLAR POLIPROPILENO TROUSSES</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
@@ -6898,7 +7242,9 @@
         </is>
       </c>
       <c r="G168" t="inlineStr"/>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="n">
+        <v>18</v>
+      </c>
       <c r="I168" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6917,16 +7263,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>3669</v>
+        <v>3664</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>10040034</t>
+          <t>10040028</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>GEL BUZZY</t>
+          <t>FACE SHIELD</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
@@ -6935,7 +7281,9 @@
         </is>
       </c>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>71</v>
+      </c>
       <c r="I169" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6954,16 +7302,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>3670</v>
+        <v>3665</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>10040043</t>
+          <t>10040029</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PINCA ANATOMICA DISSECCAO 10CM</t>
+          <t>FRASCO 100 ML - BORRIFADOR</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
@@ -6972,7 +7320,9 @@
         </is>
       </c>
       <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>133</v>
+      </c>
       <c r="I170" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -6991,16 +7341,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>3671</v>
+        <v>3666</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>10040044</t>
+          <t>10040030</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PINCA ANATOMICA DISSECCAO 20CM</t>
+          <t>FRASCO 100 ML - VALVULA PUMP</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
@@ -7009,7 +7359,9 @@
         </is>
       </c>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>87</v>
+      </c>
       <c r="I171" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7028,16 +7380,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>3672</v>
+        <v>3667</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>10040045</t>
+          <t>10040031</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>POTE PARA KIT PEZINHO 19X13X5</t>
+          <t>FRASCO 500 ML - BORRIFADOR</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
@@ -7046,7 +7398,9 @@
         </is>
       </c>
       <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
       <c r="I172" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7065,16 +7419,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>3673</v>
+        <v>3668</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>10040049</t>
+          <t>10040032</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>RACK PARA PONTEIRAS 1.000µL - COM 100 FUROS</t>
+          <t>FRASCO 500 ML - VALVULA PUMP</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
@@ -7083,7 +7437,9 @@
         </is>
       </c>
       <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
+      <c r="H173" t="n">
+        <v>10</v>
+      </c>
       <c r="I173" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7102,16 +7458,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>3678</v>
+        <v>3669</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>10040051</t>
+          <t>10040034</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>RECIPIENTE PARA ALGODAO 400ML</t>
+          <t>GEL BUZZY</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
@@ -7120,7 +7476,9 @@
         </is>
       </c>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>144</v>
+      </c>
       <c r="I174" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7139,16 +7497,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>3645</v>
+        <v>3670</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>10040052</t>
+          <t>10040043</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>SUPORTE AMPOLA BCG - CAMARA FRIA PORTATIL</t>
+          <t>PINCA ANATOMICA DISSECCAO 10CM</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
@@ -7157,7 +7515,9 @@
         </is>
       </c>
       <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>3</v>
+      </c>
       <c r="I175" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7176,16 +7536,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>3646</v>
+        <v>3671</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>10040053</t>
+          <t>10040044</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>SUPORTE AMPOLA BCG - MADEIRA</t>
+          <t>PINCA ANATOMICA DISSECCAO 20CM</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
@@ -7194,7 +7554,9 @@
         </is>
       </c>
       <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
       <c r="I176" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7213,16 +7575,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>3647</v>
+        <v>3672</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>10040054</t>
+          <t>10040045</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>TERMOMETRO DIGITAL</t>
+          <t>POTE PARA KIT PEZINHO 19X13X5</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
@@ -7231,7 +7593,9 @@
         </is>
       </c>
       <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
+      <c r="H177" t="n">
+        <v>10</v>
+      </c>
       <c r="I177" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7250,16 +7614,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>3648</v>
+        <v>3673</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>10040056</t>
+          <t>10040049</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>TERMOMETRO PARA COOLER</t>
+          <t>RACK PARA PONTEIRAS 1.000µL - COM 100 FUROS</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -7268,7 +7632,9 @@
         </is>
       </c>
       <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
       <c r="I178" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7287,16 +7653,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>3649</v>
+        <v>3678</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>10040057</t>
+          <t>10040051</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>TERMOMETRO TERMO-HIGROMETRO</t>
+          <t>RECIPIENTE PARA ALGODAO 400ML</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
@@ -7305,7 +7671,9 @@
         </is>
       </c>
       <c r="G179" t="inlineStr"/>
-      <c r="H179" t="inlineStr"/>
+      <c r="H179" t="n">
+        <v>19</v>
+      </c>
       <c r="I179" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7324,212 +7692,223 @@
         </is>
       </c>
       <c r="C180" t="n">
+        <v>3645</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>10040052</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>SUPORTE AMPOLA BCG - CAMARA FRIA PORTATIL</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>7</v>
+      </c>
+      <c r="I180" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>3646</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>10040053</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>SUPORTE AMPOLA BCG - MADEIRA</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>12</v>
+      </c>
+      <c r="I181" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>3647</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>10040054</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>TERMOMETRO DIGITAL</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>19</v>
+      </c>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>3648</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>10040056</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>TERMOMETRO PARA COOLER</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>33</v>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>3649</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>10040057</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>TERMOMETRO TERMO-HIGROMETRO</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="n">
+        <v>4</v>
+      </c>
+      <c r="I184" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
         <v>3720</v>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>10040059</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="E185" t="inlineStr">
         <is>
           <t xml:space="preserve">MOCHILA COURO BEEP MODELO ANTIGO 
 </t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C181" t="n">
-        <v>3674</v>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>10050063</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>DISPOSITIVO PARA ALIVIO DE DOR DA INJECAO</t>
-        </is>
-      </c>
-      <c r="F181" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C182" t="n">
-        <v>3675</v>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>10050101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>MASSAGEADOR INIBIDOR NATURAL DE DOR</t>
-        </is>
-      </c>
-      <c r="F182" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C183" t="n">
-        <v>3782</v>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>10050143</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>ADESIVO EM PAPEL BRILHO SEM ENOBRECIMENTO CFP ELBER DE RECOMENDAÇÕES - TAMPA</t>
-        </is>
-      </c>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C184" t="n">
-        <v>3793</v>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>10050144</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">ADESIVO CFP ELBER - CLASSIFICAÇÃO DE RISCO UN3373 - FRONTAL
-</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr">
-        <is>
-          <t>UNIDADE</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>ALMOX - BRASÍLIA</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>FILIAL BRASILIA-DF 0950</t>
-        </is>
-      </c>
-      <c r="C185" t="n">
-        <v>3784</v>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>10050145</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>ADESIVO EM PAPEL BRILHO SEM ENOBRECIMENTO CFP ELBER LOGO BEEP - LATERAL</t>
-        </is>
-      </c>
       <c r="F185" t="inlineStr">
         <is>
           <t>ALMOX</t>
         </is>
       </c>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>17</v>
+      </c>
       <c r="I185" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7548,16 +7927,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>3701</v>
+        <v>3674</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>10060213</t>
+          <t>10050063</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>ROTULADOR ELETRONICO PT80 PORTATIL</t>
+          <t>DISPOSITIVO PARA ALIVIO DE DOR DA INJECAO</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
@@ -7566,7 +7945,9 @@
         </is>
       </c>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>19</v>
+      </c>
       <c r="I186" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7585,16 +7966,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>3696</v>
+        <v>3675</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>10060321</t>
+          <t>10050101</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>FITA DUPLA FACE M.ACRILICA 24X2 - 3M</t>
+          <t>MASSAGEADOR INIBIDOR NATURAL DE DOR</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -7603,7 +7984,9 @@
         </is>
       </c>
       <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
+      <c r="H187" t="n">
+        <v>6</v>
+      </c>
       <c r="I187" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7622,16 +8005,16 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>3686</v>
+        <v>3782</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>10060404</t>
+          <t>10050143</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>EXTRATOR GRAMPO ESPATULA ZINCADO CA-111</t>
+          <t>ADESIVO EM PAPEL BRILHO SEM ENOBRECIMENTO CFP ELBER DE RECOMENDAÇÕES - TAMPA</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
@@ -7659,16 +8042,17 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>3687</v>
+        <v>3793</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>10060408</t>
+          <t>10050144</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>GRAMPEADOR PLAST 26/6 25FL 13CM A17 PTO</t>
+          <t xml:space="preserve">ADESIVO CFP ELBER - CLASSIFICAÇÃO DE RISCO UN3373 - FRONTAL
+</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
@@ -7696,16 +8080,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>3689</v>
+        <v>3784</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>10060410</t>
+          <t>10050145</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>TESOURA ESCOLAR 11,4CM 167 MUNDIAL</t>
+          <t>ADESIVO EM PAPEL BRILHO SEM ENOBRECIMENTO CFP ELBER LOGO BEEP - LATERAL</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
@@ -7733,16 +8117,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>3794</v>
+        <v>3701</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>10060413</t>
+          <t>10060213</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>PRANCHETA DURATEX OFICIO SOUZA</t>
+          <t>ROTULADOR ELETRONICO PT80 PORTATIL</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
@@ -7751,7 +8135,9 @@
         </is>
       </c>
       <c r="G191" t="inlineStr"/>
-      <c r="H191" t="inlineStr"/>
+      <c r="H191" t="n">
+        <v>1</v>
+      </c>
       <c r="I191" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7770,16 +8156,16 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>3626</v>
+        <v>3696</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>10060415</t>
+          <t>10060321</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>GRAMPO 26/6 GALVANIZ 5000UN GRAMPLINE</t>
+          <t>FITA DUPLA FACE M.ACRILICA 24X2 - 3M</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
@@ -7788,10 +8174,12 @@
         </is>
       </c>
       <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
+      <c r="H192" t="n">
+        <v>4</v>
+      </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>CAIXA</t>
+          <t>UNIDADE</t>
         </is>
       </c>
     </row>
@@ -7807,16 +8195,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>3690</v>
+        <v>3686</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>10060418</t>
+          <t>10060404</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>ETIQ TP12 AMARELO 12MM 210 ETIQ PIMACO</t>
+          <t>EXTRATOR GRAMPO ESPATULA ZINCADO CA-111</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7825,7 +8213,9 @@
         </is>
       </c>
       <c r="G193" t="inlineStr"/>
-      <c r="H193" t="inlineStr"/>
+      <c r="H193" t="n">
+        <v>3</v>
+      </c>
       <c r="I193" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7844,16 +8234,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>3691</v>
+        <v>3687</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>10060419</t>
+          <t>10060408</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>ETIQ TP12 AZUL 12MM 210 ETIQ PIMACO</t>
+          <t>GRAMPEADOR PLAST 26/6 25FL 13CM A17 PTO</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
@@ -7862,7 +8252,9 @@
         </is>
       </c>
       <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
       <c r="I194" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7881,16 +8273,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>3692</v>
+        <v>3689</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>10060420</t>
+          <t>10060410</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>ETIQ TP12 VERMELHO 12MM 210 ETIQ PIMACO</t>
+          <t>TESOURA ESCOLAR 11,4CM 167 MUNDIAL</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
@@ -7899,7 +8291,9 @@
         </is>
       </c>
       <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
+      <c r="H195" t="n">
+        <v>40</v>
+      </c>
       <c r="I195" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -7918,16 +8312,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>3694</v>
+        <v>3794</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>10060439</t>
+          <t>10060413</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>COLA BASTAO 10G MAXPRINT</t>
+          <t>PRANCHETA DURATEX OFICIO SOUZA</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
@@ -7955,16 +8349,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>3695</v>
+        <v>3626</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>10060441</t>
+          <t>10060415</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>LAPIS PRETO HB EVOL RED BIC</t>
+          <t>GRAMPO 26/6 GALVANIZ 5000UN GRAMPLINE</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
@@ -7973,10 +8367,12 @@
         </is>
       </c>
       <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
+      <c r="H197" t="n">
+        <v>6</v>
+      </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>UNIDADE</t>
+          <t>CAIXA</t>
         </is>
       </c>
     </row>
@@ -7992,16 +8388,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>3697</v>
+        <v>3690</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>10060443</t>
+          <t>10060418</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>REGUA 30CM AZ POLIES 981.2 ACRIMET</t>
+          <t>ETIQ TP12 AMARELO 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
@@ -8010,7 +8406,9 @@
         </is>
       </c>
       <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="H198" t="n">
+        <v>10</v>
+      </c>
       <c r="I198" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8029,16 +8427,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>3698</v>
+        <v>3691</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>10060452</t>
+          <t>10060419</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>APONTADOR C/DEP RETANG SORT C/1 CIS</t>
+          <t>ETIQ TP12 AZUL 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -8047,7 +8445,9 @@
         </is>
       </c>
       <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
+      <c r="H199" t="n">
+        <v>10</v>
+      </c>
       <c r="I199" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8066,16 +8466,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>3699</v>
+        <v>3692</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>10060456</t>
+          <t>10060420</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>CLIPS N.2/0 GALVANIZ L.LEVE 720UN</t>
+          <t>ETIQ TP12 VERMELHO 12MM 210 ETIQ PIMACO</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -8084,7 +8484,9 @@
         </is>
       </c>
       <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
+      <c r="H200" t="n">
+        <v>12</v>
+      </c>
       <c r="I200" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8103,16 +8505,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>3700</v>
+        <v>3694</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>10060465</t>
+          <t>10060439</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>BORRACHA C/CAPA C/1 RADEX</t>
+          <t>COLA BASTAO 10G MAXPRINT</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
@@ -8121,7 +8523,9 @@
         </is>
       </c>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>14</v>
+      </c>
       <c r="I201" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8140,16 +8544,16 @@
         </is>
       </c>
       <c r="C202" t="n">
-        <v>3702</v>
+        <v>3695</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>10060467</t>
+          <t>10060441</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>CANETA ESF 1,0 VM CRISTAL BIC</t>
+          <t>LAPIS PRETO HB EVOL RED BIC</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
@@ -8158,7 +8562,9 @@
         </is>
       </c>
       <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
+      <c r="H202" t="n">
+        <v>3</v>
+      </c>
       <c r="I202" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8177,16 +8583,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>3703</v>
+        <v>3697</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>10060468</t>
+          <t>10060443</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>CANETA ESF 1.0 AZ CRISTAL BIC</t>
+          <t>REGUA 30CM AZ POLIES 981.2 ACRIMET</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -8195,7 +8601,9 @@
         </is>
       </c>
       <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
+      <c r="H203" t="n">
+        <v>10</v>
+      </c>
       <c r="I203" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8214,16 +8622,16 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>3704</v>
+        <v>3698</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>10060477</t>
+          <t>10060452</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>PINCEL RETROPROJ AZ PTA 2MM PILOT</t>
+          <t>APONTADOR C/DEP RETANG SORT C/1 CIS</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
@@ -8232,7 +8640,9 @@
         </is>
       </c>
       <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="n">
+        <v>4</v>
+      </c>
       <c r="I204" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8251,16 +8661,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>3705</v>
+        <v>3699</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>10060478</t>
+          <t>10060456</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>PINCEL RETROPROJ VM 2,00MM PILOT</t>
+          <t>CLIPS N.2/0 GALVANIZ L.LEVE 720UN</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
@@ -8269,7 +8679,9 @@
         </is>
       </c>
       <c r="G205" t="inlineStr"/>
-      <c r="H205" t="inlineStr"/>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
       <c r="I205" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8288,16 +8700,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>3796</v>
+        <v>3700</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>10060479</t>
+          <t>10060465</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>PINCEL RETROPROJ PT 2,00MM PILOT</t>
+          <t>BORRACHA C/CAPA C/1 RADEX</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
@@ -8306,7 +8718,9 @@
         </is>
       </c>
       <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
+      <c r="H206" t="n">
+        <v>21</v>
+      </c>
       <c r="I206" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8325,16 +8739,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>3706</v>
+        <v>3702</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>10060486</t>
+          <t>10060467</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>FITILHO PLASTICO P/EMBALAG 320M +/- 900G</t>
+          <t>CANETA ESF 1,0 VM CRISTAL BIC</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
@@ -8343,7 +8757,9 @@
         </is>
       </c>
       <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
+      <c r="H207" t="n">
+        <v>10</v>
+      </c>
       <c r="I207" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8362,16 +8778,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>3680</v>
+        <v>3703</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>10060497</t>
+          <t>10060468</t>
         </is>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>FITA ADES PP 48X50 MARROM FIT PEL</t>
+          <t>CANETA ESF 1.0 AZ CRISTAL BIC</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -8380,7 +8796,9 @@
         </is>
       </c>
       <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
+      <c r="H208" t="n">
+        <v>109</v>
+      </c>
       <c r="I208" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8399,16 +8817,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>3681</v>
+        <v>3704</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>10060504</t>
+          <t>10060477</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>APAGADOR PARA QUADRO BRANCO</t>
+          <t>PINCEL RETROPROJ AZ PTA 2MM PILOT</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
@@ -8417,7 +8835,9 @@
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
+      <c r="H209" t="n">
+        <v>14</v>
+      </c>
       <c r="I209" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8436,16 +8856,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>3684</v>
+        <v>3705</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>10060506</t>
+          <t>10060478</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>PASTA ABA ELAST PP (MINI) CRISTAL A01B</t>
+          <t>PINCEL RETROPROJ VM 2,00MM PILOT</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
@@ -8454,7 +8874,9 @@
         </is>
       </c>
       <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
       <c r="I210" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8473,16 +8895,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>3685</v>
+        <v>3796</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>10060509</t>
+          <t>10060479</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>CANETA ESF 0.8 AZ CRISTAL FINA BIC</t>
+          <t>PINCEL RETROPROJ PT 2,00MM PILOT</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
@@ -8491,7 +8913,9 @@
         </is>
       </c>
       <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
+      <c r="H211" t="n">
+        <v>3</v>
+      </c>
       <c r="I211" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8510,16 +8934,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>3789</v>
+        <v>3706</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>10060511</t>
+          <t>10060486</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>TESOURA 25950/148 21,6CM TRAMONTINA</t>
+          <t>FITILHO PLASTICO P/EMBALAG 320M +/- 900G</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
@@ -8528,7 +8952,9 @@
         </is>
       </c>
       <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
+      <c r="H212" t="n">
+        <v>4</v>
+      </c>
       <c r="I212" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8547,16 +8973,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3688</v>
+        <v>3680</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>10060515</t>
+          <t>10060497</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>ALMOFADA CARIMBO N.3 AZ 6,6X10,8 CM</t>
+          <t>FITA ADES PP 48X50 MARROM FIT PEL</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
@@ -8565,7 +8991,9 @@
         </is>
       </c>
       <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
+      <c r="H213" t="n">
+        <v>16</v>
+      </c>
       <c r="I213" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8584,16 +9012,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>3800</v>
+        <v>3681</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>10060516</t>
+          <t>10060504</t>
         </is>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TINTA CARIMBO 40ML AZ RADEX</t>
+          <t>APAGADOR PARA QUADRO BRANCO</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -8602,7 +9030,9 @@
         </is>
       </c>
       <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr"/>
+      <c r="H214" t="n">
+        <v>3</v>
+      </c>
       <c r="I214" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8621,16 +9051,16 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3693</v>
+        <v>3684</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>10060534</t>
+          <t>10060506</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>ARQUIVO MORTO POLIONDA OF VERDE</t>
+          <t>PASTA ABA ELAST PP (MINI) CRISTAL A01B</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
@@ -8639,7 +9069,9 @@
         </is>
       </c>
       <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
+      <c r="H215" t="n">
+        <v>5</v>
+      </c>
       <c r="I215" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8658,16 +9090,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>3682</v>
+        <v>3685</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>10060557</t>
+          <t>10060509</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>PASTA L OF CR 230X335 0,15 PP</t>
+          <t>CANETA ESF 0.8 AZ CRISTAL FINA BIC</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
@@ -8676,7 +9108,9 @@
         </is>
       </c>
       <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="n">
+        <v>50</v>
+      </c>
       <c r="I216" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8695,16 +9129,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>3683</v>
+        <v>3789</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>10060560</t>
+          <t>10060511</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t xml:space="preserve">CADERNO 100 FOLHAS </t>
+          <t>TESOURA 25950/148 21,6CM TRAMONTINA</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8713,7 +9147,9 @@
         </is>
       </c>
       <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
+      <c r="H217" t="n">
+        <v>0</v>
+      </c>
       <c r="I217" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8732,16 +9168,16 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>3707</v>
+        <v>3688</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>10060561</t>
+          <t>10060515</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>CANETA CORRETIVA PONTA METALICA</t>
+          <t>ALMOFADA CARIMBO N.3 AZ 6,6X10,8 CM</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -8750,7 +9186,9 @@
         </is>
       </c>
       <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
+      <c r="H218" t="n">
+        <v>2</v>
+      </c>
       <c r="I218" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8769,16 +9207,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>3708</v>
+        <v>3800</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>10060570</t>
+          <t>10060516</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>ENVELOPE A4</t>
+          <t>TINTA CARIMBO 40ML AZ RADEX</t>
         </is>
       </c>
       <c r="F219" t="inlineStr">
@@ -8787,7 +9225,9 @@
         </is>
       </c>
       <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
+      <c r="H219" t="n">
+        <v>3</v>
+      </c>
       <c r="I219" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8806,16 +9246,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>3709</v>
+        <v>3693</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>10060573</t>
+          <t>10060534</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>FITA ADESIVA TRANSPARENTE FINA</t>
+          <t>ARQUIVO MORTO POLIONDA OF VERDE</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
@@ -8824,7 +9264,9 @@
         </is>
       </c>
       <c r="G220" t="inlineStr"/>
-      <c r="H220" t="inlineStr"/>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
       <c r="I220" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8843,16 +9285,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>3710</v>
+        <v>3682</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>10060574</t>
+          <t>10060557</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>FITA ADESIVA TRANSPARENTE LARGA</t>
+          <t>PASTA L OF CR 230X335 0,15 PP</t>
         </is>
       </c>
       <c r="F221" t="inlineStr">
@@ -8861,7 +9303,9 @@
         </is>
       </c>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
+      <c r="H221" t="n">
+        <v>10</v>
+      </c>
       <c r="I221" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8880,16 +9324,16 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>3711</v>
+        <v>3683</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>10060575</t>
+          <t>10060560</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>FITA PARA ROTULADOR M-231</t>
+          <t xml:space="preserve">CADERNO 100 FOLHAS </t>
         </is>
       </c>
       <c r="F222" t="inlineStr">
@@ -8898,7 +9342,9 @@
         </is>
       </c>
       <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
+      <c r="H222" t="n">
+        <v>5</v>
+      </c>
       <c r="I222" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8917,16 +9363,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>3712</v>
+        <v>3707</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>10060578</t>
+          <t>10060561</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>MARCA-TEXTO AMARELO</t>
+          <t>CANETA CORRETIVA PONTA METALICA</t>
         </is>
       </c>
       <c r="F223" t="inlineStr">
@@ -8935,7 +9381,9 @@
         </is>
       </c>
       <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
+      <c r="H223" t="n">
+        <v>26</v>
+      </c>
       <c r="I223" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8954,16 +9402,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>3713</v>
+        <v>3708</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>10060581</t>
+          <t>10060570</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>PASTA ABA ELASTICO GRANDE</t>
+          <t>ENVELOPE A4</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8972,7 +9420,9 @@
         </is>
       </c>
       <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
+      <c r="H224" t="n">
+        <v>37</v>
+      </c>
       <c r="I224" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -8991,16 +9441,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>3714</v>
+        <v>3709</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>10060582</t>
+          <t>10060573</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>PASTA CATALOGO COM VISOR</t>
+          <t>FITA ADESIVA TRANSPARENTE FINA</t>
         </is>
       </c>
       <c r="F225" t="inlineStr">
@@ -9009,7 +9459,9 @@
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
+      <c r="H225" t="n">
+        <v>7</v>
+      </c>
       <c r="I225" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9028,16 +9480,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>3715</v>
+        <v>3710</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>10060583</t>
+          <t>10060574</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>PILHA AA</t>
+          <t>FITA ADESIVA TRANSPARENTE LARGA</t>
         </is>
       </c>
       <c r="F226" t="inlineStr">
@@ -9046,7 +9498,9 @@
         </is>
       </c>
       <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="H226" t="n">
+        <v>23</v>
+      </c>
       <c r="I226" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9065,16 +9519,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>3716</v>
+        <v>3711</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>10060585</t>
+          <t>10060575</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t xml:space="preserve">PORTA CANETA </t>
+          <t>FITA PARA ROTULADOR M-231</t>
         </is>
       </c>
       <c r="F227" t="inlineStr">
@@ -9083,7 +9537,9 @@
         </is>
       </c>
       <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="H227" t="n">
+        <v>4</v>
+      </c>
       <c r="I227" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9102,16 +9558,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3717</v>
+        <v>3712</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>10060586</t>
+          <t>10060578</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>POST-IT GRANDE</t>
+          <t>MARCA-TEXTO AMARELO</t>
         </is>
       </c>
       <c r="F228" t="inlineStr">
@@ -9120,7 +9576,9 @@
         </is>
       </c>
       <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="H228" t="n">
+        <v>8</v>
+      </c>
       <c r="I228" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9139,16 +9597,16 @@
         </is>
       </c>
       <c r="C229" t="n">
-        <v>3629</v>
+        <v>3713</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>10060587</t>
+          <t>10060581</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>POST-IT PEQUENO</t>
+          <t>PASTA ABA ELASTICO GRANDE</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">
@@ -9157,7 +9615,9 @@
         </is>
       </c>
       <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+      <c r="H229" t="n">
+        <v>2</v>
+      </c>
       <c r="I229" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9176,16 +9636,16 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>3718</v>
+        <v>3714</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>10060589</t>
+          <t>10060582</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>SACO TRANSPARENTE 4 FUROS</t>
+          <t>PASTA CATALOGO COM VISOR</t>
         </is>
       </c>
       <c r="F230" t="inlineStr">
@@ -9194,7 +9654,9 @@
         </is>
       </c>
       <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
+      <c r="H230" t="n">
+        <v>3</v>
+      </c>
       <c r="I230" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9213,16 +9675,16 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>3802</v>
+        <v>3715</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>10060591</t>
+          <t>10060583</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>QUADRO DE AVISOS A4</t>
+          <t>PILHA AA</t>
         </is>
       </c>
       <c r="F231" t="inlineStr">
@@ -9231,7 +9693,9 @@
         </is>
       </c>
       <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
+      <c r="H231" t="n">
+        <v>132</v>
+      </c>
       <c r="I231" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9250,16 +9714,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>3797</v>
+        <v>3716</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>10060592</t>
+          <t>10060585</t>
         </is>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>DISPLAY DE ACRILICO A4</t>
+          <t xml:space="preserve">PORTA CANETA </t>
         </is>
       </c>
       <c r="F232" t="inlineStr">
@@ -9268,7 +9732,9 @@
         </is>
       </c>
       <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
+      <c r="H232" t="n">
+        <v>1</v>
+      </c>
       <c r="I232" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9287,16 +9753,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>3722</v>
+        <v>3717</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>10060825</t>
+          <t>10060586</t>
         </is>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>RIBBON CERA 110X74 IMPORTADO ARGOX ZEBRA ELGIN</t>
+          <t>POST-IT GRANDE</t>
         </is>
       </c>
       <c r="F233" t="inlineStr">
@@ -9305,7 +9771,9 @@
         </is>
       </c>
       <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
+      <c r="H233" t="n">
+        <v>14</v>
+      </c>
       <c r="I233" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9324,16 +9792,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>3725</v>
+        <v>3629</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>10061063</t>
+          <t>10060587</t>
         </is>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>TINTA EPSON PRETA 5/ UNIVERSAL</t>
+          <t>POST-IT PEQUENO</t>
         </is>
       </c>
       <c r="F234" t="inlineStr">
@@ -9342,7 +9810,9 @@
         </is>
       </c>
       <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
+      <c r="H234" t="n">
+        <v>44</v>
+      </c>
       <c r="I234" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9361,16 +9831,16 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>3726</v>
+        <v>3718</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>10061064</t>
+          <t>10060589</t>
         </is>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>TINTA EPSON CIANO 5/ UNIVERSAL</t>
+          <t>SACO TRANSPARENTE 4 FUROS</t>
         </is>
       </c>
       <c r="F235" t="inlineStr">
@@ -9379,7 +9849,9 @@
         </is>
       </c>
       <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
+      <c r="H235" t="n">
+        <v>80</v>
+      </c>
       <c r="I235" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9398,16 +9870,16 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>3727</v>
+        <v>3802</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>10061065</t>
+          <t>10060591</t>
         </is>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>TINTA EPSON MAGENTA 5/ UNIVERSAL</t>
+          <t>QUADRO DE AVISOS A4</t>
         </is>
       </c>
       <c r="F236" t="inlineStr">
@@ -9416,7 +9888,9 @@
         </is>
       </c>
       <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
+      <c r="H236" t="n">
+        <v>0</v>
+      </c>
       <c r="I236" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9435,16 +9909,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>3798</v>
+        <v>3797</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>10061066</t>
+          <t>10060592</t>
         </is>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>TINTA EPSON AMARELA 5/ UNIVERSAL</t>
+          <t>DISPLAY DE ACRILICO A4</t>
         </is>
       </c>
       <c r="F237" t="inlineStr">
@@ -9453,7 +9927,9 @@
         </is>
       </c>
       <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
+      <c r="H237" t="n">
+        <v>0</v>
+      </c>
       <c r="I237" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9472,16 +9948,16 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>3785</v>
+        <v>3722</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>10061067</t>
+          <t>10060825</t>
         </is>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>TONER PRETO TN-3492 P/ BROTHER 5652</t>
+          <t>RIBBON CERA 110X74 IMPORTADO ARGOX ZEBRA ELGIN</t>
         </is>
       </c>
       <c r="F238" t="inlineStr">
@@ -9490,7 +9966,9 @@
         </is>
       </c>
       <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
+      <c r="H238" t="n">
+        <v>13</v>
+      </c>
       <c r="I238" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9509,16 +9987,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>3788</v>
+        <v>3725</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>10061068</t>
+          <t>10061063</t>
         </is>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>CILINDRO DR880 P/ BROTHER  5652</t>
+          <t>TINTA EPSON PRETA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F239" t="inlineStr">
@@ -9527,7 +10005,9 @@
         </is>
       </c>
       <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
+      <c r="H239" t="n">
+        <v>0</v>
+      </c>
       <c r="I239" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9546,16 +10026,16 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>3783</v>
+        <v>3726</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>10061069</t>
+          <t>10061064</t>
         </is>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>TONER PRETO TN-419X P/ BROTHER 8900</t>
+          <t>TINTA EPSON CIANO 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F240" t="inlineStr">
@@ -9564,7 +10044,9 @@
         </is>
       </c>
       <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
+      <c r="H240" t="n">
+        <v>1</v>
+      </c>
       <c r="I240" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9583,16 +10065,16 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>3791</v>
+        <v>3727</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>10061070</t>
+          <t>10061065</t>
         </is>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>TONER CIANO TN-419X P/ BROTHER 8900</t>
+          <t>TINTA EPSON MAGENTA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F241" t="inlineStr">
@@ -9601,7 +10083,9 @@
         </is>
       </c>
       <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
+      <c r="H241" t="n">
+        <v>1</v>
+      </c>
       <c r="I241" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9620,16 +10104,16 @@
         </is>
       </c>
       <c r="C242" t="n">
-        <v>3790</v>
+        <v>3798</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>10061071</t>
+          <t>10061066</t>
         </is>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>TONER MAGENTA TN-419X P/ BROTHER 8900</t>
+          <t>TINTA EPSON AMARELA 5/ UNIVERSAL</t>
         </is>
       </c>
       <c r="F242" t="inlineStr">
@@ -9638,7 +10122,9 @@
         </is>
       </c>
       <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="H242" t="n">
+        <v>0</v>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
           <t>UNIDADE</t>
@@ -9657,26 +10143,223 @@
         </is>
       </c>
       <c r="C243" t="n">
+        <v>3785</v>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>10061067</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>TONER PRETO TN-3492 P/ BROTHER 5652</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr"/>
+      <c r="H243" t="n">
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>3788</v>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>10061068</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>CILINDRO DR880 P/ BROTHER  5652</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="n">
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>3783</v>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>10061069</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>TONER PRETO TN-419X P/ BROTHER 8900</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="n">
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>3791</v>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>10061070</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>TONER CIANO TN-419X P/ BROTHER 8900</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr"/>
+      <c r="H246" t="n">
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>3790</v>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>10061071</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>TONER MAGENTA TN-419X P/ BROTHER 8900</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr"/>
+      <c r="H247" t="n">
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr">
+        <is>
+          <t>UNIDADE</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ALMOX - BRASÍLIA</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>FILIAL BRASILIA-DF 0950</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
         <v>3795</v>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D248" t="inlineStr">
         <is>
           <t>10061072</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="E248" t="inlineStr">
         <is>
           <t>TONER AMARELO TN-419X P/ BROTHER 8900</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
-        <is>
-          <t>ALMOX</t>
-        </is>
-      </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr">
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>ALMOX</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="n">
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr">
         <is>
           <t>UNIDADE</t>
         </is>
